--- a/listado.xlsx
+++ b/listado.xlsx
@@ -31,28 +31,28 @@
     <t>Razón</t>
   </si>
   <si>
-    <t>Jaime</t>
-  </si>
-  <si>
-    <t>Muñoz</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>Dirección Ejecutiva</t>
-  </si>
-  <si>
-    <t>Asistió</t>
-  </si>
-  <si>
-    <t>Leonila</t>
-  </si>
-  <si>
-    <t>Aragon</t>
-  </si>
-  <si>
-    <t>1025</t>
+    <t>Papa</t>
+  </si>
+  <si>
+    <t>Cerdito</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>Secretaria</t>
+  </si>
+  <si>
+    <t>No Asistió</t>
+  </si>
+  <si>
+    <t>No asistió</t>
+  </si>
+  <si>
+    <t>Mama</t>
+  </si>
+  <si>
+    <t>1002</t>
   </si>
 </sst>
 </file>
@@ -472,15 +472,15 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
